--- a/public/download/03.项目人员导入模板.xlsx
+++ b/public/download/03.项目人员导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silver/Desktop/JM/国家平台数据Excel模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\old3\Desktop\国家平台Excel标准格式\国家平台数据Excel模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FBB36829-0871-3241-8DAD-1094A8FC603F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91A3D2-0D9B-457B-A913-A8A59BC46CD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="15920" xr2:uid="{F4DC2470-6C58-0142-A84E-086B7DF2BC34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{F4DC2470-6C58-0142-A84E-086B7DF2BC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发放工资卡银行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否购买工伤或意外伤害保险</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -140,6 +136,10 @@
   </si>
   <si>
     <t>证件有效期结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放工资卡银行代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +147,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,6 +230,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,36 +561,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EC68B9-E8E1-B543-8D67-CE3CB2D4BA9C}">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="9" width="10.83203125" style="1"/>
+    <col min="2" max="9" width="10.84375" style="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.83203125" style="3" customWidth="1"/>
-    <col min="15" max="17" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="17.33203125" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="13.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.5" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" customWidth="1"/>
-    <col min="24" max="24" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="24.3046875" customWidth="1"/>
+    <col min="12" max="12" width="22.84375" customWidth="1"/>
+    <col min="13" max="13" width="20.15234375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.84375" style="3" customWidth="1"/>
+    <col min="15" max="17" width="10.84375" style="1"/>
+    <col min="18" max="18" width="17.3046875" customWidth="1"/>
+    <col min="19" max="19" width="10.84375" style="1"/>
+    <col min="20" max="20" width="13.84375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.4609375" customWidth="1"/>
+    <col min="23" max="23" width="17.69140625" customWidth="1"/>
+    <col min="24" max="24" width="17.15234375" customWidth="1"/>
     <col min="25" max="25" width="21" customWidth="1"/>
-    <col min="26" max="26" width="17.33203125" style="5" customWidth="1"/>
-    <col min="27" max="27" width="19.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="25.1640625" customWidth="1"/>
+    <col min="26" max="26" width="17.3046875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="19.4609375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="25.15234375" customWidth="1"/>
     <col min="29" max="29" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -610,59 +628,76 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="8"/>
+      <c r="T2" s="6"/>
+      <c r="V2" s="9"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="10"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/download/03.项目人员导入模板.xlsx
+++ b/public/download/03.项目人员导入模板.xlsx
@@ -1,161 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\old3\Desktop\国家平台Excel标准格式\国家平台数据Excel模板\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91A3D2-0D9B-457B-A913-A8A59BC46CD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{F4DC2470-6C58-0142-A84E-086B7DF2BC34}"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>企业统一社会信用代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>企业名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>班组名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否班组长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>证件号码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>当前工种</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工人类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发放工资银行卡号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发放工资银行名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发放工资卡银行联号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放工资卡银行</t>
   </si>
   <si>
     <t>是否购买工伤或意外伤害保险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>住址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政治面貌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>加入工会时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>手机号码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>文化程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>特长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否有重大病史</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>紧急联系人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>紧急联系方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开始工作日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>婚姻状况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发证机关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>证件有效期开始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>证件有效期结束日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放工资卡银行代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -163,43 +122,363 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -207,58 +486,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -307,7 +866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -340,26 +899,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -392,23 +934,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,154 +1075,415 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EC68B9-E8E1-B543-8D67-CE3CB2D4BA9C}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="9" width="10.84375" style="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="24.3046875" customWidth="1"/>
-    <col min="12" max="12" width="22.84375" customWidth="1"/>
-    <col min="13" max="13" width="20.15234375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.84375" style="3" customWidth="1"/>
-    <col min="15" max="17" width="10.84375" style="1"/>
-    <col min="18" max="18" width="17.3046875" customWidth="1"/>
-    <col min="19" max="19" width="10.84375" style="1"/>
-    <col min="20" max="20" width="13.84375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.4609375" customWidth="1"/>
-    <col min="23" max="23" width="17.69140625" customWidth="1"/>
-    <col min="24" max="24" width="17.15234375" customWidth="1"/>
-    <col min="25" max="25" width="21" customWidth="1"/>
-    <col min="26" max="26" width="17.3046875" style="5" customWidth="1"/>
-    <col min="27" max="27" width="19.4609375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="25.15234375" customWidth="1"/>
-    <col min="29" max="29" width="23" customWidth="1"/>
+    <col min="1" max="1" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7272727272727" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.8333333333333" style="1"/>
+    <col min="6" max="6" width="22.0909090909091" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.8333333333333" style="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="24.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="22.8333333333333" customWidth="1"/>
+    <col min="12" max="12" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.8333333333333" style="2" customWidth="1"/>
+    <col min="14" max="16" width="10.8333333333333" style="1"/>
+    <col min="17" max="17" width="17.3333333333333" customWidth="1"/>
+    <col min="18" max="18" width="10.8333333333333" style="1"/>
+    <col min="19" max="19" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5" customWidth="1"/>
+    <col min="22" max="22" width="17.6666666666667" customWidth="1"/>
+    <col min="23" max="23" width="17.1666666666667" customWidth="1"/>
+    <col min="24" max="24" width="21" customWidth="1"/>
+    <col min="25" max="25" width="17.3333333333333" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="25.1666666666667" customWidth="1"/>
+    <col min="28" max="28" width="23" customWidth="1"/>
+    <col min="37" max="37" width="21.2727272727273" customWidth="1"/>
+    <col min="38" max="38" width="13.9090909090909" customWidth="1"/>
+    <col min="39" max="39" width="14.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:42">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>28</v>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="8"/>
-      <c r="T2" s="6"/>
-      <c r="V2" s="9"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="10"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+    </row>
+    <row r="2" spans="36:42">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+    </row>
+    <row r="3" spans="36:42">
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+    </row>
+    <row r="4" spans="36:42">
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+    </row>
+    <row r="5" spans="36:42">
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+    </row>
+    <row r="6" spans="36:41">
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+    </row>
+    <row r="7" spans="36:41">
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+    </row>
+    <row r="8" spans="36:41">
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+    </row>
+    <row r="9" spans="36:41">
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+    </row>
+    <row r="10" spans="36:41">
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+    </row>
+    <row r="11" spans="36:41">
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+    </row>
+    <row r="12" spans="36:41">
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+    </row>
+    <row r="13" spans="36:41">
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+    </row>
+    <row r="14" spans="36:41">
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+    </row>
+    <row r="15" spans="36:41">
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+    </row>
+    <row r="16" spans="36:41">
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+    </row>
+    <row r="17" spans="36:41">
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+    </row>
+    <row r="18" spans="36:41">
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+    </row>
+    <row r="19" spans="36:41">
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+    </row>
+    <row r="20" spans="36:41">
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+    </row>
+    <row r="21" spans="36:41">
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+    </row>
+    <row r="22" spans="36:41">
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+    </row>
+    <row r="23" spans="36:41">
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+    </row>
+    <row r="24" spans="36:41">
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+    </row>
+    <row r="25" spans="36:41">
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+    </row>
+    <row r="26" ht="16" customHeight="1" spans="36:41">
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+    </row>
+    <row r="27" spans="36:41">
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+    </row>
+    <row r="28" spans="36:41">
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+    </row>
+    <row r="29" spans="36:41">
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+    </row>
+    <row r="30" spans="36:41">
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+    </row>
+    <row r="31" spans="36:41">
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+    </row>
+    <row r="32" spans="36:41">
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1234">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1479">
+      <formula1>"木工,石工,砌筑工,钢筋工,防水工,电焊工,爆破工,除尘工,架子工,混凝土工,模板工,机械设备安装工,通风工,安装起重工,安装钳工,电气设备安装调试工,管道工,变电安装工,建筑电工,司泵工,挖掘铲运和桩工机械司机,桩机操作工,起重信号工,建筑起重机械安装拆卸工,装饰装修工,室内成套设施安装工,建筑门窗幕墙安装工,幕墙制作工,测量放线工,线路架设工,古建筑传统石工"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1268">
+      <formula1>"管理人员,建筑工人"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1450">
+      <formula1>"群众,无党派人士,中共党员,中共预备党员,共青团员,民革党员,民盟盟员,民建会员,民进会员,农工党党员,致公党党员,九三学社社员,合盟盟员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1219">
+      <formula1>"小学,初中,高中,中专,大专,本科,硕士,博士,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1138">
+      <formula1>"未婚,已婚,离异,丧偶"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/download/03.项目人员导入模板.xlsx
+++ b/public/download/03.项目人员导入模板.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kcos/Documents/work/gchf/xn-gchf-oss/public/download/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,18 +113,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -122,6 +130,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -129,356 +138,27 @@
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -486,255 +166,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,58 +200,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1075,49 +472,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7272727272727" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.8333333333333" style="1"/>
-    <col min="6" max="6" width="22.0909090909091" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.8333333333333" style="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="1"/>
+    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="24.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="22.8333333333333" customWidth="1"/>
-    <col min="12" max="12" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.8333333333333" style="2" customWidth="1"/>
-    <col min="14" max="16" width="10.8333333333333" style="1"/>
-    <col min="17" max="17" width="17.3333333333333" customWidth="1"/>
-    <col min="18" max="18" width="10.8333333333333" style="1"/>
-    <col min="19" max="19" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11" style="1"/>
+    <col min="17" max="17" width="17.33203125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1"/>
+    <col min="19" max="19" width="13.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="24.5" customWidth="1"/>
-    <col min="22" max="22" width="17.6666666666667" customWidth="1"/>
-    <col min="23" max="23" width="17.1666666666667" customWidth="1"/>
-    <col min="24" max="24" width="21" customWidth="1"/>
-    <col min="25" max="25" width="17.3333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" customWidth="1"/>
+    <col min="24" max="24" width="21" style="10" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" style="2" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="25.1666666666667" customWidth="1"/>
-    <col min="28" max="28" width="23" customWidth="1"/>
-    <col min="37" max="37" width="21.2727272727273" customWidth="1"/>
-    <col min="38" max="38" width="13.9090909090909" customWidth="1"/>
-    <col min="39" max="39" width="14.3636363636364" customWidth="1"/>
+    <col min="27" max="27" width="25.1640625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="23" style="10" customWidth="1"/>
+    <col min="37" max="37" width="21.33203125" customWidth="1"/>
+    <col min="38" max="38" width="13.83203125" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +563,7 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
@@ -1187,7 +584,7 @@
       <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="6" t="s">
@@ -1196,10 +593,10 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="AJ1" s="8"/>
@@ -1210,7 +607,10 @@
       <c r="AO1" s="8"/>
       <c r="AP1" s="8"/>
     </row>
-    <row r="2" spans="36:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="Q2" s="10">
+        <v>43446</v>
+      </c>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
@@ -1219,7 +619,7 @@
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
     </row>
-    <row r="3" spans="36:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
@@ -1228,7 +628,7 @@
       <c r="AO3" s="8"/>
       <c r="AP3" s="8"/>
     </row>
-    <row r="4" spans="36:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
@@ -1237,7 +637,7 @@
       <c r="AO4" s="8"/>
       <c r="AP4" s="8"/>
     </row>
-    <row r="5" spans="36:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
@@ -1246,7 +646,7 @@
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
     </row>
-    <row r="6" spans="36:41">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
@@ -1254,7 +654,7 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
     </row>
-    <row r="7" spans="36:41">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
@@ -1262,7 +662,7 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
     </row>
-    <row r="8" spans="36:41">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
@@ -1270,7 +670,7 @@
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
     </row>
-    <row r="9" spans="36:41">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
@@ -1278,7 +678,7 @@
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
     </row>
-    <row r="10" spans="36:41">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
@@ -1286,7 +686,7 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
     </row>
-    <row r="11" spans="36:41">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
@@ -1294,7 +694,7 @@
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
     </row>
-    <row r="12" spans="36:41">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
@@ -1302,7 +702,7 @@
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
     </row>
-    <row r="13" spans="36:41">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
@@ -1310,7 +710,7 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
     </row>
-    <row r="14" spans="36:41">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
@@ -1318,7 +718,7 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
     </row>
-    <row r="15" spans="36:41">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
@@ -1326,7 +726,7 @@
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
     </row>
-    <row r="16" spans="36:41">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
@@ -1334,7 +734,7 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
     </row>
-    <row r="17" spans="36:41">
+    <row r="17" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
       <c r="AL17" s="8"/>
@@ -1342,7 +742,7 @@
       <c r="AN17" s="8"/>
       <c r="AO17" s="8"/>
     </row>
-    <row r="18" spans="36:41">
+    <row r="18" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
@@ -1350,7 +750,7 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
     </row>
-    <row r="19" spans="36:41">
+    <row r="19" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
@@ -1358,7 +758,7 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
     </row>
-    <row r="20" spans="36:41">
+    <row r="20" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
@@ -1366,7 +766,7 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
     </row>
-    <row r="21" spans="36:41">
+    <row r="21" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
       <c r="AL21" s="8"/>
@@ -1374,7 +774,7 @@
       <c r="AN21" s="8"/>
       <c r="AO21" s="8"/>
     </row>
-    <row r="22" spans="36:41">
+    <row r="22" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
       <c r="AL22" s="8"/>
@@ -1382,7 +782,7 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
     </row>
-    <row r="23" spans="36:41">
+    <row r="23" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
@@ -1390,7 +790,7 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
     </row>
-    <row r="24" spans="36:41">
+    <row r="24" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
@@ -1398,7 +798,7 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
     </row>
-    <row r="25" spans="36:41">
+    <row r="25" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
@@ -1406,7 +806,7 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
     </row>
-    <row r="26" ht="16" customHeight="1" spans="36:41">
+    <row r="26" spans="36:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
@@ -1414,7 +814,7 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
     </row>
-    <row r="27" spans="36:41">
+    <row r="27" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
       <c r="AL27" s="8"/>
@@ -1422,7 +822,7 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
     </row>
-    <row r="28" spans="36:41">
+    <row r="28" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8"/>
       <c r="AL28" s="8"/>
@@ -1430,7 +830,7 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
     </row>
-    <row r="29" spans="36:41">
+    <row r="29" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
       <c r="AL29" s="8"/>
@@ -1438,7 +838,7 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
     </row>
-    <row r="30" spans="36:41">
+    <row r="30" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
       <c r="AL30" s="8"/>
@@ -1446,7 +846,7 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
     </row>
-    <row r="31" spans="36:41">
+    <row r="31" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
       <c r="AL31" s="8"/>
@@ -1454,7 +854,7 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
     </row>
-    <row r="32" spans="36:41">
+    <row r="32" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
       <c r="AL32" s="8"/>
@@ -1463,8 +863,9 @@
       <c r="AO32" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1234">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1234 U1:U1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1479">
@@ -1482,8 +883,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1138">
       <formula1>"未婚,已婚,离异,丧偶"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/public/download/03.项目人员导入模板.xlsx
+++ b/public/download/03.项目人员导入模板.xlsx
@@ -172,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +204,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,8 +513,8 @@
     <col min="24" max="24" width="21" style="10" customWidth="1"/>
     <col min="25" max="25" width="17.33203125" style="2" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="25.1640625" style="10" customWidth="1"/>
-    <col min="28" max="28" width="23" style="10" customWidth="1"/>
+    <col min="27" max="27" width="25.1640625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="23" style="12" customWidth="1"/>
     <col min="37" max="37" width="21.33203125" customWidth="1"/>
     <col min="38" max="38" width="13.83203125" customWidth="1"/>
     <col min="39" max="39" width="14.33203125" customWidth="1"/>
@@ -593,10 +599,10 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="AJ1" s="8"/>
